--- a/data/news_and_keyword/kosdaq/HLB.xlsx
+++ b/data/news_and_keyword/kosdaq/HLB.xlsx
@@ -3385,12 +3385,12 @@
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>리보세라닙 중국서 난소암 신약허가 소식에 강세</t>
+          <t>제약, 리보세라닙 中서 난소암 치료제 획득에 ‘강세’</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>['리보세라닙', '중국서', '난소암', '신약허가', '소식에']</t>
+          <t>['제약', '리보세라닙', '中서', '난소암', '치료제']</t>
         </is>
       </c>
       <c r="D114" t="n">
@@ -3411,12 +3411,12 @@
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>제약, 리보세라닙 中서 난소암 치료제 획득에 ‘강세’</t>
+          <t>리보세라닙 중국서 난소암 신약허가 소식에 강세</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>['제약', '리보세라닙', '中서', '난소암', '치료제']</t>
+          <t>['리보세라닙', '중국서', '난소암', '신약허가', '소식에']</t>
         </is>
       </c>
       <c r="D115" t="n">
